--- a/WSSSPE2_report/figures/barriers.xlsx
+++ b/WSSSPE2_report/figures/barriers.xlsx
@@ -48,13 +48,13 @@
     <t>% of attendees supporting item as barrier to software sustainability</t>
   </si>
   <si>
-    <t>overreliance on one or two people – the "bus test"</t>
-  </si>
-  <si>
-    <t>lack of incentives, including promotion and tenure process</t>
-  </si>
-  <si>
-    <t>developers are not computer scientists; don't have software engineering practices</t>
+    <t>overreliance on one or two people – the "bus test" (3)</t>
+  </si>
+  <si>
+    <t>lack of incentives, including promotion and tenure process (1)</t>
+  </si>
+  <si>
+    <t>developers are not computer scientists; don't have software engineering practices (2)</t>
   </si>
 </sst>
 </file>
@@ -246,10 +246,10 @@
                   <c:v>rate of change of underlying technologies </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>overreliance on one or two people – the "bus test"</c:v>
+                  <c:v>overreliance on one or two people – the "bus test" (3)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>developers are not computer scientists; don't have software engineering practices</c:v>
+                  <c:v>developers are not computer scientists; don't have software engineering practices (2)</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>funding to ensure sustainability is difficult to obtain</c:v>
@@ -258,7 +258,7 @@
                   <c:v>absent or poor documentation</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>lack of incentives, including promotion and tenure process</c:v>
+                  <c:v>lack of incentives, including promotion and tenure process (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -315,11 +315,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2115491592"/>
-        <c:axId val="-2115488552"/>
+        <c:axId val="2119270648"/>
+        <c:axId val="2099363432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115491592"/>
+        <c:axId val="2119270648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -338,7 +338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115488552"/>
+        <c:crossAx val="2099363432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -346,7 +346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115488552"/>
+        <c:axId val="2099363432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -358,7 +358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115491592"/>
+        <c:crossAx val="2119270648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -740,7 +740,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
